--- a/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/Adjuntos/IntroEstructurasDeDatos.xlsx
+++ b/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/Adjuntos/IntroEstructurasDeDatos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\05-Introducción a Estructuras de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\05-Introducción a Estructuras de datos\Adjuntos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B80DC-634C-4D78-B164-D813B12E984E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA758FA2-C4C7-4B74-AD0A-EC26B48F2020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estructuras" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tablas" sheetId="3" r:id="rId3"/>
     <sheet name="Tablas vs Rangos" sheetId="4" r:id="rId4"/>
     <sheet name="Json" sheetId="5" r:id="rId5"/>
+    <sheet name="FormulasEstructuras" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -175,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="156">
   <si>
     <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
   </si>
@@ -636,6 +637,105 @@
   </si>
   <si>
     <t>Indices en estructuras</t>
+  </si>
+  <si>
+    <t>Fórmula</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>SUMA (SUM)</t>
+  </si>
+  <si>
+    <t>Calcula la suma de un rango de números</t>
+  </si>
+  <si>
+    <t>PROMEDIO (AVERAGE)</t>
+  </si>
+  <si>
+    <t>Calcula el promedio aritmético de un rango</t>
+  </si>
+  <si>
+    <t>CONTAR (COUNT)</t>
+  </si>
+  <si>
+    <t>Cuenta el número de celdas con valores numéricos</t>
+  </si>
+  <si>
+    <t>CONTARA (COUNTA)</t>
+  </si>
+  <si>
+    <t>Cuenta el número total de celdas no vacías</t>
+  </si>
+  <si>
+    <t>MAX (MAX)</t>
+  </si>
+  <si>
+    <t>Devuelve el valor máximo en un rango</t>
+  </si>
+  <si>
+    <t>MIN (MIN)</t>
+  </si>
+  <si>
+    <t>Devuelve el valor mínimo en un rango</t>
+  </si>
+  <si>
+    <t>BUSCARV (VLOOKUP)</t>
+  </si>
+  <si>
+    <t>BUSCARH (HLOOKUP)</t>
+  </si>
+  <si>
+    <t>SI (IF)</t>
+  </si>
+  <si>
+    <t>Evalúa una condición sobre un rango</t>
+  </si>
+  <si>
+    <t>SUMAR.SI (SUMIF)</t>
+  </si>
+  <si>
+    <t>Suma valores que cumplen un criterio</t>
+  </si>
+  <si>
+    <t>CONTAR.SI (COUNTIF)</t>
+  </si>
+  <si>
+    <t>Cuenta celdas que cumplen un criterio</t>
+  </si>
+  <si>
+    <t>PROMEDIO.SI (AVERAGEIF)</t>
+  </si>
+  <si>
+    <t>Promedia valores que cumplen un criterio</t>
+  </si>
+  <si>
+    <t>INDICE (INDEX)</t>
+  </si>
+  <si>
+    <t>Devuelve un valor de un rango en una posición</t>
+  </si>
+  <si>
+    <t>COINCIDIR (MATCH)</t>
+  </si>
+  <si>
+    <t>Busca un valor y devuelve su posición relativa</t>
+  </si>
+  <si>
+    <t>DESREF (OFFSET)</t>
+  </si>
+  <si>
+    <t>Devuelve un rango desplazado desde una referencia</t>
+  </si>
+  <si>
+    <t>Busca un valor, se detiene en la primera coincidencia,  y devuelve uno de otra columna</t>
+  </si>
+  <si>
+    <t>Busca un valor, se detiene en la primera coincidencia, y devuelve uno de otra fila</t>
+  </si>
+  <si>
+    <t>UID's, busquedas y asociación de datos</t>
   </si>
 </sst>
 </file>
@@ -771,7 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -790,6 +890,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -799,7 +900,24 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1201,10 +1319,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9957BD-2E97-45D7-9B92-C3C2C6F6D440}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1215,49 +1336,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1278,7 +1399,7 @@
       <c r="A9" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1289,7 +1410,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1307,14 +1429,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -1402,14 +1524,14 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -1557,10 +1679,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B2606-4B11-447E-974A-1BE76490EDAE}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27:P38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1771,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA904AD-8FF2-4D1F-A7B6-F62770BD532C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1793,7 +1918,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1804,7 +1929,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="19" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1815,7 +1940,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1826,7 +1951,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="19" t="s">
         <v>60</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1870,7 +1995,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" customHeight="1">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="20" t="s">
         <v>72</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1881,7 +2006,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1978,20 +2103,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="N2" s="12" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="N2" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
     </row>
     <row r="3" spans="1:18">
       <c r="H3" s="4" t="s">
@@ -2143,4 +2268,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B85044-DB3A-427F-A169-CEAD159CE1CF}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="79.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="6"/>
+      <c r="F1" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="15"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1">
+      <c r="A7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1">
+      <c r="A8" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1">
+      <c r="A9" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1">
+      <c r="A11" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1">
+      <c r="A12" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1">
+      <c r="A13" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1">
+      <c r="A14" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="15"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1">
+      <c r="A15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="15"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>